--- a/biology/Histoire de la zoologie et de la botanique/Otto_Fabricius/Otto_Fabricius.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Otto_Fabricius/Otto_Fabricius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto Fabricius, né à Rudkøbing le 6 mars 1744 et mort à Copenhague le 20 mai 1822, est un naturaliste et missionnaire danois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se rend au Groenland en 1768 pour évangéliser les Inuits. Durant cinq ans, il réalise de nombreuses observations sur les mœurs des Esquimaux ainsi que sur la faune. En 1780, il fait paraître Fauna Groenlandica et un lexique de grammaire en langue inuit. Il réalise également la traduction d'un catéchisme et du Nouveau Testament dans cette même langue.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fauna Groenlandica, systematice sistens animalia Groenlandiæ occidentalis hactenus indagata, qvoad nomen specificum, triviale, vernaculumqve; synonyma auctorum plurium, descriptionem, locum, victum, generationem, mores, usum, capturamqve singuli, prout detegendi occasio fuit, maximaque parte secundum proprias observationes - Hafn. ; Lips., 1780.
 Bidrag til Bibel-Kundskab ved oplysende Anmærkninger over vigtige og vanskelige Steder i den hellige Skrift - Kopenhagen, 1783-1787.
